--- a/KBDownloadandInstall/kb_list.xlsx
+++ b/KBDownloadandInstall/kb_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16320"/>
+    <workbookView windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,71 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>3078601</t>
-  </si>
-  <si>
-    <t>3004375</t>
-  </si>
-  <si>
-    <t>3197867</t>
-  </si>
-  <si>
-    <t>2698365</t>
-  </si>
-  <si>
-    <t>2496290</t>
-  </si>
-  <si>
-    <t>2552343</t>
-  </si>
-  <si>
-    <t>2640696</t>
-  </si>
-  <si>
-    <t>3109103</t>
-  </si>
-  <si>
-    <t>2653956</t>
-  </si>
-  <si>
-    <t>4048960</t>
-  </si>
-  <si>
-    <t>2685939</t>
-  </si>
-  <si>
-    <t>3115858</t>
-  </si>
-  <si>
-    <t>4103712</t>
-  </si>
-  <si>
-    <t>2619572</t>
-  </si>
-  <si>
-    <t>2706045</t>
-  </si>
-  <si>
-    <t>371003</t>
-  </si>
-  <si>
-    <t>371011</t>
-  </si>
-  <si>
-    <t>370698</t>
-  </si>
-  <si>
-    <t>5016737</t>
-  </si>
-  <si>
-    <t>370033</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,7 +973,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1047,109 +982,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3">
+      <c r="A1" s="1">
         <v>4474419</v>
       </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
